--- a/home_ports/addresses_to_fix.xlsx
+++ b/home_ports/addresses_to_fix.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="addresses_to_fix" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="change_to" sheetId="2" r:id="rId2"/>
+    <sheet name="w ids" sheetId="4" r:id="rId3"/>
+    <sheet name="old" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="796">
   <si>
     <t>FROGMORE</t>
   </si>
@@ -1583,13 +1585,838 @@
   </si>
   <si>
     <t>FORT MORGAN</t>
+  </si>
+  <si>
+    <t>vessel_official_number</t>
+  </si>
+  <si>
+    <t>AL6468LL</t>
+  </si>
+  <si>
+    <t>ALEXANDER CITY, AL,</t>
+  </si>
+  <si>
+    <t>BAYOU LABATRE,</t>
+  </si>
+  <si>
+    <t>CHALESTON,</t>
+  </si>
+  <si>
+    <t>CHAUVIN, LA,</t>
+  </si>
+  <si>
+    <t>FL4605SW</t>
+  </si>
+  <si>
+    <t>FERNADINA BCH,</t>
+  </si>
+  <si>
+    <t>FORT MORGAN MARINA,</t>
+  </si>
+  <si>
+    <t>GALLINANO,</t>
+  </si>
+  <si>
+    <t>SC9087BU</t>
+  </si>
+  <si>
+    <t>GEORGRTOWN,</t>
+  </si>
+  <si>
+    <t>GULFSHORES,</t>
+  </si>
+  <si>
+    <t>AL0090RM</t>
+  </si>
+  <si>
+    <t>FL8800JG</t>
+  </si>
+  <si>
+    <t>HILISBORO INLET,</t>
+  </si>
+  <si>
+    <t>FL1150ST</t>
+  </si>
+  <si>
+    <t>HOMOASSA,</t>
+  </si>
+  <si>
+    <t>HOUMA LA,</t>
+  </si>
+  <si>
+    <t>INTERCOASTAL CITY,</t>
+  </si>
+  <si>
+    <t>KEYWEST,</t>
+  </si>
+  <si>
+    <t>SC8023DE</t>
+  </si>
+  <si>
+    <t>LITTLE RIVERNHV1N4WH,</t>
+  </si>
+  <si>
+    <t>LOXLEY AL,</t>
+  </si>
+  <si>
+    <t>FL7456DK</t>
+  </si>
+  <si>
+    <t>MADIERA BEACH,</t>
+  </si>
+  <si>
+    <t>FL3687JP</t>
+  </si>
+  <si>
+    <t>FL8088KE</t>
+  </si>
+  <si>
+    <t>991216 / FL2956NJ</t>
+  </si>
+  <si>
+    <t>IA6809AT</t>
+  </si>
+  <si>
+    <t>FL5193RE</t>
+  </si>
+  <si>
+    <t>MCLELLANVILLE,</t>
+  </si>
+  <si>
+    <t>SC7325CG</t>
+  </si>
+  <si>
+    <t>MURELLS INLET,</t>
+  </si>
+  <si>
+    <t>SC8904DP</t>
+  </si>
+  <si>
+    <t>SC5325DR</t>
+  </si>
+  <si>
+    <t>MURRELS INLET,</t>
+  </si>
+  <si>
+    <t>SC3878DH</t>
+  </si>
+  <si>
+    <t>SC9358DR</t>
+  </si>
+  <si>
+    <t>SC5706DP</t>
+  </si>
+  <si>
+    <t>FL0045LZ</t>
+  </si>
+  <si>
+    <t>NEW SMYMA BEACH,</t>
+  </si>
+  <si>
+    <t>MD4204BR</t>
+  </si>
+  <si>
+    <t>OCEEAN CITY,</t>
+  </si>
+  <si>
+    <t>POINT PLEASANT NJ,</t>
+  </si>
+  <si>
+    <t>576946 / FL5165FR</t>
+  </si>
+  <si>
+    <t>PORT CANVERAL,</t>
+  </si>
+  <si>
+    <t>FL0359TH</t>
+  </si>
+  <si>
+    <t>TX1060KB</t>
+  </si>
+  <si>
+    <t>PORT O CANNOR,</t>
+  </si>
+  <si>
+    <t>TX1500HU</t>
+  </si>
+  <si>
+    <t>PORT OCONNOR,</t>
+  </si>
+  <si>
+    <t>TX2332ZY</t>
+  </si>
+  <si>
+    <t>TX7825JH</t>
+  </si>
+  <si>
+    <t>1140048 / TX6604KA</t>
+  </si>
+  <si>
+    <t>TX9473JA</t>
+  </si>
+  <si>
+    <t>TX9520EJ</t>
+  </si>
+  <si>
+    <t>TX3881JM</t>
+  </si>
+  <si>
+    <t>TX7361EJ</t>
+  </si>
+  <si>
+    <t>TX3480CU</t>
+  </si>
+  <si>
+    <t>TX4770DL</t>
+  </si>
+  <si>
+    <t>TX1108KB</t>
+  </si>
+  <si>
+    <t>TX6760FD</t>
+  </si>
+  <si>
+    <t>TX6508ZV</t>
+  </si>
+  <si>
+    <t>TX7436FP</t>
+  </si>
+  <si>
+    <t>TX6783AK</t>
+  </si>
+  <si>
+    <t>TX5098WP</t>
+  </si>
+  <si>
+    <t>TX6037AH</t>
+  </si>
+  <si>
+    <t>TX5796AR</t>
+  </si>
+  <si>
+    <t>TX2905KD</t>
+  </si>
+  <si>
+    <t>TX1701AK</t>
+  </si>
+  <si>
+    <t>GA0986XW</t>
+  </si>
+  <si>
+    <t>TX9473FZ</t>
+  </si>
+  <si>
+    <t>TX3622AP</t>
+  </si>
+  <si>
+    <t>TX9308AE</t>
+  </si>
+  <si>
+    <t>TX8576EC</t>
+  </si>
+  <si>
+    <t>TX7387BS</t>
+  </si>
+  <si>
+    <t>TX5488FB</t>
+  </si>
+  <si>
+    <t>TX3911DY</t>
+  </si>
+  <si>
+    <t>TX2618JL</t>
+  </si>
+  <si>
+    <t>993121 / TX5995BV</t>
+  </si>
+  <si>
+    <t>TX6354AL</t>
+  </si>
+  <si>
+    <t>TX8588BU</t>
+  </si>
+  <si>
+    <t>TX8780AZ</t>
+  </si>
+  <si>
+    <t>TX6409DE</t>
+  </si>
+  <si>
+    <t>TX1520CZ</t>
+  </si>
+  <si>
+    <t>TX2947FB</t>
+  </si>
+  <si>
+    <t>TX5603DH</t>
+  </si>
+  <si>
+    <t>OK6247EC</t>
+  </si>
+  <si>
+    <t>TX9048CC</t>
+  </si>
+  <si>
+    <t>1273655 / TX2413DN</t>
+  </si>
+  <si>
+    <t>TX6503RA</t>
+  </si>
+  <si>
+    <t>OK5319ED</t>
+  </si>
+  <si>
+    <t>TX2346JJ</t>
+  </si>
+  <si>
+    <t>TX7605JP</t>
+  </si>
+  <si>
+    <t>FL6871PP</t>
+  </si>
+  <si>
+    <t>PUNTA GORGA,</t>
+  </si>
+  <si>
+    <t>FL7673DE</t>
+  </si>
+  <si>
+    <t>RIVERIA BEACH,</t>
+  </si>
+  <si>
+    <t>TX6291CS</t>
+  </si>
+  <si>
+    <t>S PADRE ISLE,</t>
+  </si>
+  <si>
+    <t>FL9638NZ</t>
+  </si>
+  <si>
+    <t>SEBASTAIN,</t>
+  </si>
+  <si>
+    <t>FL1807SX</t>
+  </si>
+  <si>
+    <t>FL6360HA</t>
+  </si>
+  <si>
+    <t>FL9038EW</t>
+  </si>
+  <si>
+    <t>STEINAHTCHEE,</t>
+  </si>
+  <si>
+    <t>SUMMRLND KEY,</t>
+  </si>
+  <si>
+    <t>FL6570JK</t>
+  </si>
+  <si>
+    <t>TAVENIER,</t>
+  </si>
+  <si>
+    <t>WANCHEESE,</t>
+  </si>
+  <si>
+    <t>hailingport</t>
+  </si>
+  <si>
+    <t>BAYOU LA BATRE, AL</t>
+  </si>
+  <si>
+    <t>CHARLESTON, SC</t>
+  </si>
+  <si>
+    <t>CHAUVIN, LA</t>
+  </si>
+  <si>
+    <t>FERNANDINA BEACH, FL</t>
+  </si>
+  <si>
+    <t>FORT MORGAN, AL</t>
+  </si>
+  <si>
+    <t>GALLIANO, LA</t>
+  </si>
+  <si>
+    <t>GEORGETOWN, SC</t>
+  </si>
+  <si>
+    <t>GULF SHORES, AL</t>
+  </si>
+  <si>
+    <t>HILLSBORO INLET, FL</t>
+  </si>
+  <si>
+    <t>HOMOSASSA, FL</t>
+  </si>
+  <si>
+    <t>HOUMA, LA</t>
+  </si>
+  <si>
+    <t>INTRACOASTAL CITY, LA</t>
+  </si>
+  <si>
+    <t>KEY WEST, FL</t>
+  </si>
+  <si>
+    <t>LITTLE RIVER, SC</t>
+  </si>
+  <si>
+    <t>LOXLEY, AL</t>
+  </si>
+  <si>
+    <t>MADEIRA BEACH, FL</t>
+  </si>
+  <si>
+    <t>MCCLELLANVILLE, SC</t>
+  </si>
+  <si>
+    <t>MURRELLS INLET, SC</t>
+  </si>
+  <si>
+    <t>NEW SMYRNA BEACH, FL</t>
+  </si>
+  <si>
+    <t>OCEAN CITY, MD</t>
+  </si>
+  <si>
+    <t>POINT PLEASANT, NJ</t>
+  </si>
+  <si>
+    <t>PORT CANAVERAL, FL</t>
+  </si>
+  <si>
+    <t>PORT O'CONNOR, TX</t>
+  </si>
+  <si>
+    <t>PUNTA GORDA, FL</t>
+  </si>
+  <si>
+    <t>RIVIERA BEACH, FL</t>
+  </si>
+  <si>
+    <t>SEBASTIAN, FL</t>
+  </si>
+  <si>
+    <t>STEINHATCHEE, FL</t>
+  </si>
+  <si>
+    <t>SUMMERLAND KEY, FL</t>
+  </si>
+  <si>
+    <t>TAVERNIER, FL</t>
+  </si>
+  <si>
+    <t>WANCHESE, NC</t>
+  </si>
+  <si>
+    <t>ALEXANDER CITY, AL</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>SAINT PADRE ISLAND, TX</t>
+  </si>
+  <si>
+    <t>HIALEAH GARDENS</t>
+  </si>
+  <si>
+    <t>JOHN'S PASS TREASURE ISLAND</t>
+  </si>
+  <si>
+    <t>LAKE WORTH INLET</t>
+  </si>
+  <si>
+    <t>North Fort Myers</t>
+  </si>
+  <si>
+    <t>North Miami Beach</t>
+  </si>
+  <si>
+    <t>North Palm Beach</t>
+  </si>
+  <si>
+    <t>North Dartmouth</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>O'CONNOR</t>
+  </si>
+  <si>
+    <t>OSPREY HARBOR MARINA</t>
+  </si>
+  <si>
+    <t>PALM HARBOR</t>
+  </si>
+  <si>
+    <t>PORT SAINT JOHN</t>
+  </si>
+  <si>
+    <t>POINT JUDITH</t>
+  </si>
+  <si>
+    <t>POINT PLEASANT</t>
+  </si>
+  <si>
+    <t>POINT PLEASANT BEACH</t>
+  </si>
+  <si>
+    <t>SOUTH PADRE ISLAND</t>
+  </si>
+  <si>
+    <t>SANTA FE</t>
+  </si>
+  <si>
+    <t>SAINT ANDREWS</t>
+  </si>
+  <si>
+    <t>SAINT AUGUSTINE</t>
+  </si>
+  <si>
+    <t>SAINT BERNARD</t>
+  </si>
+  <si>
+    <t>SAINT GEORGE ISLAND</t>
+  </si>
+  <si>
+    <t>SAINT HELENA ISLAND</t>
+  </si>
+  <si>
+    <t>SAINT JAMES</t>
+  </si>
+  <si>
+    <t>SAINT JAMES CITY</t>
+  </si>
+  <si>
+    <t>SAINT JOHNS</t>
+  </si>
+  <si>
+    <t>SAINT LUCIE</t>
+  </si>
+  <si>
+    <t>SAINT LUCIE INLET</t>
+  </si>
+  <si>
+    <t>SAINT MARKS</t>
+  </si>
+  <si>
+    <t>SAINT MARYS</t>
+  </si>
+  <si>
+    <t>SAINT MICHAELS</t>
+  </si>
+  <si>
+    <t>SAINT PETE BEACH</t>
+  </si>
+  <si>
+    <t>SAINT PETERSBURG</t>
+  </si>
+  <si>
+    <t>SAINT PETERSBURG BEACH</t>
+  </si>
+  <si>
+    <t>SAINT SIMONS ISLAND</t>
+  </si>
+  <si>
+    <t>SAINT CHARLES</t>
+  </si>
+  <si>
+    <t>SAINT JOE PORT</t>
+  </si>
+  <si>
+    <t>SUMMERDALE</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt; MAY CAPE, NJ</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt; CLEARWATER, FL</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt; BRUNSWICK, GA</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;FERNANDINA,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;UNKNOWN,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;SAINT THOMAS,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;SOUTHPORT,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;SAINT JOHN,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;CHRISTIANSTED,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;ST THOMAS,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;0,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;00,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;ST CROIX,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;WILMINGTON,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;PORT ARANSAS,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;REHOBOTH,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;O,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;X,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;CAROLINA BEACH,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;WILMONGTON,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;ISLAMORADA,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt; POMPANO BEACH, FL</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;FLORIDA CITY,</t>
+  </si>
+  <si>
+    <t>xml:space="preserve"&gt;ST. JOHN U.S. VIRGIN ISLANDS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL9319GV	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">576081/576081	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506902	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9419662005	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2399806115	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8502652833	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAQ1054	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2522165009	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADVESID	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8508329943	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8508329940	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553234	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517026	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC1312WG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1171382	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7279920372	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1106575	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC7912DM	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555771	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL2635KJ	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1140579	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL3915EW	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI1746C	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1066927	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL3407ML	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">635986	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL8939JR	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925240	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI4537TA	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">634165	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI2879TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI8949TB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI0289TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVESSEL	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ7101GW	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI3820TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC3500BY	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965939	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1278725	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA2520FR	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL5780AH	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI2406CB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL7172LV	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO609468	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139403	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL9413RO	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI5304TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO1199228	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO552832	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC4334DB	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC8480DP	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC3838EW	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL2479PV	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL0062CZ	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL7851JU	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI6969TC/VI6969TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI1413TC	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948477	</t>
+  </si>
+  <si>
+    <t>change to</t>
+  </si>
+  <si>
+    <t>CLEARWATER, FL</t>
+  </si>
+  <si>
+    <t>BRUNSWICK, GA</t>
+  </si>
+  <si>
+    <t>FERNANDINA, FL</t>
+  </si>
+  <si>
+    <t>CAPE MAY, NJ</t>
+  </si>
+  <si>
+    <t>POMPANO BEACH, FL</t>
+  </si>
+  <si>
+    <t>FLORIDA CITY, FL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,6 +2550,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1906,7 +2739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2021,6 +2854,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2066,8 +2914,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2391,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:D110"/>
+    <sheetView topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7043,16 +7897,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.81640625" customWidth="1"/>
+    <col min="3" max="5" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -8341,6 +9196,9 @@
       <c r="B75" t="s">
         <v>134</v>
       </c>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
       <c r="D75" t="s">
         <v>16</v>
       </c>
@@ -8358,6 +9216,9 @@
       <c r="B76" t="s">
         <v>136</v>
       </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
@@ -8697,6 +9558,9 @@
       <c r="B95" t="s">
         <v>169</v>
       </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
@@ -8731,6 +9595,9 @@
       <c r="B97" t="s">
         <v>172</v>
       </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
       <c r="D97" t="s">
         <v>173</v>
       </c>
@@ -8782,6 +9649,9 @@
       <c r="B100" t="s">
         <v>177</v>
       </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
       <c r="D100" t="s">
         <v>45</v>
       </c>
@@ -8799,6 +9669,9 @@
       <c r="B101" t="s">
         <v>179</v>
       </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
@@ -8816,6 +9689,9 @@
       <c r="B102" t="s">
         <v>181</v>
       </c>
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
       <c r="D102" t="s">
         <v>16</v>
       </c>
@@ -8872,6 +9748,9 @@
       <c r="B106" t="s">
         <v>184</v>
       </c>
+      <c r="C106" t="s">
+        <v>666</v>
+      </c>
       <c r="D106" t="s">
         <v>16</v>
       </c>
@@ -8889,6 +9768,9 @@
       <c r="B107" t="s">
         <v>186</v>
       </c>
+      <c r="C107" t="s">
+        <v>187</v>
+      </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
@@ -8923,6 +9805,9 @@
       <c r="B109" t="s">
         <v>189</v>
       </c>
+      <c r="C109" t="s">
+        <v>187</v>
+      </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
@@ -8931,10 +9816,6520 @@
       </c>
       <c r="F109">
         <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>619</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" t="s">
+        <v>192</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>636</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" t="s">
+        <v>69</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>652</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>643</v>
+      </c>
+      <c r="B123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>663</v>
+      </c>
+      <c r="B125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>207</v>
+      </c>
+      <c r="B126" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>682</v>
+      </c>
+      <c r="B128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>686</v>
+      </c>
+      <c r="B131" t="s">
+        <v>212</v>
+      </c>
+      <c r="C131" t="s">
+        <v>667</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>213</v>
+      </c>
+      <c r="B132" t="s">
+        <v>214</v>
+      </c>
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" t="s">
+        <v>216</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>217</v>
+      </c>
+      <c r="B134" t="s">
+        <v>218</v>
+      </c>
+      <c r="C134" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" t="s">
+        <v>222</v>
+      </c>
+      <c r="C138" t="s">
+        <v>668</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" t="s">
+        <v>224</v>
+      </c>
+      <c r="C140" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>225</v>
+      </c>
+      <c r="B141" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>769</v>
+      </c>
+      <c r="B142" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>786</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>231</v>
+      </c>
+      <c r="B147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>812</v>
+      </c>
+      <c r="B149" t="s">
+        <v>235</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" t="s">
+        <v>235</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" t="s">
+        <v>235</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" t="s">
+        <v>246</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>244</v>
+      </c>
+      <c r="B155" t="s">
+        <v>245</v>
+      </c>
+      <c r="C155" t="s">
+        <v>246</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>833</v>
+      </c>
+      <c r="B156" t="s">
+        <v>246</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157" t="s">
+        <v>248</v>
+      </c>
+      <c r="C157" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>846</v>
+      </c>
+      <c r="B159" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" t="s">
+        <v>249</v>
+      </c>
+      <c r="D160" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>851</v>
+      </c>
+      <c r="B162" t="s">
+        <v>252</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s">
+        <v>254</v>
+      </c>
+      <c r="C163" t="s">
+        <v>252</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" t="s">
+        <v>256</v>
+      </c>
+      <c r="C164" t="s">
+        <v>252</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>257</v>
+      </c>
+      <c r="B166" t="s">
+        <v>258</v>
+      </c>
+      <c r="C166" t="s">
+        <v>259</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>870</v>
+      </c>
+      <c r="B167" t="s">
+        <v>259</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>871</v>
+      </c>
+      <c r="B169" t="s">
+        <v>260</v>
+      </c>
+      <c r="D169" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" t="s">
+        <v>260</v>
+      </c>
+      <c r="D170" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" t="s">
+        <v>264</v>
+      </c>
+      <c r="C172" t="s">
+        <v>265</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>875</v>
+      </c>
+      <c r="B173" t="s">
+        <v>265</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>907</v>
+      </c>
+      <c r="B175" t="s">
+        <v>266</v>
+      </c>
+      <c r="D175" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" t="s">
+        <v>268</v>
+      </c>
+      <c r="C176" t="s">
+        <v>266</v>
+      </c>
+      <c r="D176" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>269</v>
+      </c>
+      <c r="B178" t="s">
+        <v>270</v>
+      </c>
+      <c r="C178" t="s">
+        <v>271</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>914</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="D179" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>919</v>
+      </c>
+      <c r="B181" t="s">
+        <v>272</v>
+      </c>
+      <c r="D181" t="s">
+        <v>139</v>
+      </c>
+      <c r="E181" t="s">
+        <v>139</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>273</v>
+      </c>
+      <c r="B182" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" t="s">
+        <v>272</v>
+      </c>
+      <c r="D182" t="s">
+        <v>139</v>
+      </c>
+      <c r="E182" t="s">
+        <v>139</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>275</v>
+      </c>
+      <c r="B183" t="s">
+        <v>276</v>
+      </c>
+      <c r="C183" t="s">
+        <v>272</v>
+      </c>
+      <c r="D183" t="s">
+        <v>139</v>
+      </c>
+      <c r="E183" t="s">
+        <v>139</v>
+      </c>
+      <c r="F183">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" t="s">
+        <v>278</v>
+      </c>
+      <c r="C184" t="s">
+        <v>272</v>
+      </c>
+      <c r="D184" t="s">
+        <v>139</v>
+      </c>
+      <c r="E184" t="s">
+        <v>139</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>279</v>
+      </c>
+      <c r="B185" t="s">
+        <v>280</v>
+      </c>
+      <c r="C185" t="s">
+        <v>272</v>
+      </c>
+      <c r="D185" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" t="s">
+        <v>139</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>930</v>
+      </c>
+      <c r="B187" t="s">
+        <v>281</v>
+      </c>
+      <c r="D187" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>282</v>
+      </c>
+      <c r="B188" t="s">
+        <v>283</v>
+      </c>
+      <c r="C188" t="s">
+        <v>669</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>284</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
+      </c>
+      <c r="C189" t="s">
+        <v>670</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>286</v>
+      </c>
+      <c r="B190" t="s">
+        <v>287</v>
+      </c>
+      <c r="C190" t="s">
+        <v>671</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>288</v>
+      </c>
+      <c r="B191" t="s">
+        <v>289</v>
+      </c>
+      <c r="C191" t="s">
+        <v>672</v>
+      </c>
+      <c r="D191" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191" t="s">
+        <v>45</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>290</v>
+      </c>
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" t="s">
+        <v>671</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>958</v>
+      </c>
+      <c r="B194" t="s">
+        <v>292</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>293</v>
+      </c>
+      <c r="B195" t="s">
+        <v>294</v>
+      </c>
+      <c r="C195" t="s">
+        <v>292</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>295</v>
+      </c>
+      <c r="B196" t="s">
+        <v>296</v>
+      </c>
+      <c r="C196" t="s">
+        <v>292</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" t="s">
+        <v>298</v>
+      </c>
+      <c r="C198" t="s">
+        <v>301</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>299</v>
+      </c>
+      <c r="B199" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>965</v>
+      </c>
+      <c r="B200" t="s">
+        <v>301</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" t="s">
+        <v>303</v>
+      </c>
+      <c r="C201" t="s">
+        <v>300</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>304</v>
+      </c>
+      <c r="B202" t="s">
+        <v>305</v>
+      </c>
+      <c r="C202" t="s">
+        <v>300</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>306</v>
+      </c>
+      <c r="B204" t="s">
+        <v>307</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>983</v>
+      </c>
+      <c r="B205" t="s">
+        <v>308</v>
+      </c>
+      <c r="C205" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>309</v>
+      </c>
+      <c r="B207" t="s">
+        <v>310</v>
+      </c>
+      <c r="C207" t="s">
+        <v>673</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>1006</v>
+      </c>
+      <c r="B208" t="s">
+        <v>311</v>
+      </c>
+      <c r="D208" t="s">
+        <v>139</v>
+      </c>
+      <c r="E208" t="s">
+        <v>139</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>1007</v>
+      </c>
+      <c r="B210" t="s">
+        <v>312</v>
+      </c>
+      <c r="D210" t="s">
+        <v>45</v>
+      </c>
+      <c r="E210" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>313</v>
+      </c>
+      <c r="B211" t="s">
+        <v>314</v>
+      </c>
+      <c r="C211" t="s">
+        <v>312</v>
+      </c>
+      <c r="D211" t="s">
+        <v>45</v>
+      </c>
+      <c r="E211" t="s">
+        <v>45</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>315</v>
+      </c>
+      <c r="B213" t="s">
+        <v>316</v>
+      </c>
+      <c r="C213" t="s">
+        <v>317</v>
+      </c>
+      <c r="D213" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>1026</v>
+      </c>
+      <c r="B214" t="s">
+        <v>317</v>
+      </c>
+      <c r="D214" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>1032</v>
+      </c>
+      <c r="B217" t="s">
+        <v>318</v>
+      </c>
+      <c r="C217" t="s">
+        <v>674</v>
+      </c>
+      <c r="D217" t="s">
+        <v>59</v>
+      </c>
+      <c r="E217" t="s">
+        <v>59</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>1048</v>
+      </c>
+      <c r="B219" t="s">
+        <v>319</v>
+      </c>
+      <c r="C219" t="s">
+        <v>320</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>1049</v>
+      </c>
+      <c r="B220" t="s">
+        <v>320</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>321</v>
+      </c>
+      <c r="B222" t="s">
+        <v>322</v>
+      </c>
+      <c r="C222" t="s">
+        <v>325</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>323</v>
+      </c>
+      <c r="B223" t="s">
+        <v>324</v>
+      </c>
+      <c r="C223" t="s">
+        <v>675</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>1062</v>
+      </c>
+      <c r="B224" t="s">
+        <v>325</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>1066</v>
+      </c>
+      <c r="B226" t="s">
+        <v>326</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>327</v>
+      </c>
+      <c r="B227" t="s">
+        <v>328</v>
+      </c>
+      <c r="C227" t="s">
+        <v>326</v>
+      </c>
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" t="s">
+        <v>24</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>1076</v>
+      </c>
+      <c r="B229" t="s">
+        <v>329</v>
+      </c>
+      <c r="C229" t="s">
+        <v>340</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>1081</v>
+      </c>
+      <c r="B231" t="s">
+        <v>330</v>
+      </c>
+      <c r="D231" t="s">
+        <v>59</v>
+      </c>
+      <c r="E231" t="s">
+        <v>59</v>
+      </c>
+      <c r="F231">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>1082</v>
+      </c>
+      <c r="B232" t="s">
+        <v>331</v>
+      </c>
+      <c r="C232" t="s">
+        <v>330</v>
+      </c>
+      <c r="D232" t="s">
+        <v>59</v>
+      </c>
+      <c r="E232" t="s">
+        <v>59</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>332</v>
+      </c>
+      <c r="B234" t="s">
+        <v>333</v>
+      </c>
+      <c r="C234" t="s">
+        <v>334</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>1098</v>
+      </c>
+      <c r="B235" t="s">
+        <v>334</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>335</v>
+      </c>
+      <c r="B236" t="s">
+        <v>336</v>
+      </c>
+      <c r="C236" t="s">
+        <v>334</v>
+      </c>
+      <c r="D236" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>337</v>
+      </c>
+      <c r="B238" t="s">
+        <v>338</v>
+      </c>
+      <c r="C238" t="s">
+        <v>339</v>
+      </c>
+      <c r="D238" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>1100</v>
+      </c>
+      <c r="B239" t="s">
+        <v>339</v>
+      </c>
+      <c r="D239" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>1101</v>
+      </c>
+      <c r="B241" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>341</v>
+      </c>
+      <c r="B242" t="s">
+        <v>342</v>
+      </c>
+      <c r="C242" t="s">
+        <v>340</v>
+      </c>
+      <c r="D242" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>1109</v>
+      </c>
+      <c r="B244" t="s">
+        <v>343</v>
+      </c>
+      <c r="D244" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>344</v>
+      </c>
+      <c r="B245" t="s">
+        <v>345</v>
+      </c>
+      <c r="C245" t="s">
+        <v>343</v>
+      </c>
+      <c r="D245" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>1111</v>
+      </c>
+      <c r="B247" t="s">
+        <v>346</v>
+      </c>
+      <c r="C247" t="s">
+        <v>347</v>
+      </c>
+      <c r="D247" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>1113</v>
+      </c>
+      <c r="B248" t="s">
+        <v>347</v>
+      </c>
+      <c r="D248" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>348</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" t="s">
+        <v>350</v>
+      </c>
+      <c r="D250" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>1122</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="D251" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>1137</v>
+      </c>
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" t="s">
+        <v>676</v>
+      </c>
+      <c r="D253" t="s">
+        <v>16</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>352</v>
+      </c>
+      <c r="B255" t="s">
+        <v>353</v>
+      </c>
+      <c r="C255" t="s">
+        <v>354</v>
+      </c>
+      <c r="D255" t="s">
+        <v>59</v>
+      </c>
+      <c r="E255" t="s">
+        <v>59</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>1164</v>
+      </c>
+      <c r="B256" t="s">
+        <v>354</v>
+      </c>
+      <c r="D256" t="s">
+        <v>59</v>
+      </c>
+      <c r="E256" t="s">
+        <v>59</v>
+      </c>
+      <c r="F256">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>1170</v>
+      </c>
+      <c r="B258" t="s">
+        <v>355</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>356</v>
+      </c>
+      <c r="B259" t="s">
+        <v>357</v>
+      </c>
+      <c r="C259" t="s">
+        <v>355</v>
+      </c>
+      <c r="D259" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>1184</v>
+      </c>
+      <c r="B261" t="s">
+        <v>358</v>
+      </c>
+      <c r="C261" t="s">
+        <v>361</v>
+      </c>
+      <c r="D261" t="s">
+        <v>59</v>
+      </c>
+      <c r="E261" t="s">
+        <v>59</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>1185</v>
+      </c>
+      <c r="B262" t="s">
+        <v>359</v>
+      </c>
+      <c r="C262" t="s">
+        <v>361</v>
+      </c>
+      <c r="D262" t="s">
+        <v>59</v>
+      </c>
+      <c r="E262" t="s">
+        <v>59</v>
+      </c>
+      <c r="F262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>1186</v>
+      </c>
+      <c r="B263" t="s">
+        <v>360</v>
+      </c>
+      <c r="C263" t="s">
+        <v>361</v>
+      </c>
+      <c r="D263" t="s">
+        <v>59</v>
+      </c>
+      <c r="E263" t="s">
+        <v>59</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>1187</v>
+      </c>
+      <c r="B264" t="s">
+        <v>361</v>
+      </c>
+      <c r="D264" t="s">
+        <v>59</v>
+      </c>
+      <c r="E264" t="s">
+        <v>59</v>
+      </c>
+      <c r="F264">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>1199</v>
+      </c>
+      <c r="B266" t="s">
+        <v>362</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" t="s">
+        <v>16</v>
+      </c>
+      <c r="F266">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>363</v>
+      </c>
+      <c r="B267" t="s">
+        <v>364</v>
+      </c>
+      <c r="C267" t="s">
+        <v>362</v>
+      </c>
+      <c r="D267" t="s">
+        <v>16</v>
+      </c>
+      <c r="E267" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>1197</v>
+      </c>
+      <c r="B269" t="s">
+        <v>365</v>
+      </c>
+      <c r="D269" t="s">
+        <v>16</v>
+      </c>
+      <c r="E269" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>1198</v>
+      </c>
+      <c r="B270" t="s">
+        <v>366</v>
+      </c>
+      <c r="D270" t="s">
+        <v>16</v>
+      </c>
+      <c r="E270" t="s">
+        <v>16</v>
+      </c>
+      <c r="F270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>1201</v>
+      </c>
+      <c r="B271" t="s">
+        <v>367</v>
+      </c>
+      <c r="C271" t="s">
+        <v>365</v>
+      </c>
+      <c r="D271" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" t="s">
+        <v>16</v>
+      </c>
+      <c r="F271">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>1202</v>
+      </c>
+      <c r="B272" t="s">
+        <v>368</v>
+      </c>
+      <c r="C272" t="s">
+        <v>366</v>
+      </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>1203</v>
+      </c>
+      <c r="B273" t="s">
+        <v>369</v>
+      </c>
+      <c r="C273" t="s">
+        <v>365</v>
+      </c>
+      <c r="D273" t="s">
+        <v>16</v>
+      </c>
+      <c r="E273" t="s">
+        <v>16</v>
+      </c>
+      <c r="F273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>1204</v>
+      </c>
+      <c r="B274" t="s">
+        <v>370</v>
+      </c>
+      <c r="C274" t="s">
+        <v>677</v>
+      </c>
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>1205</v>
+      </c>
+      <c r="B275" t="s">
+        <v>371</v>
+      </c>
+      <c r="C275" t="s">
+        <v>366</v>
+      </c>
+      <c r="D275" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275" t="s">
+        <v>16</v>
+      </c>
+      <c r="F275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>1218</v>
+      </c>
+      <c r="B276" t="s">
+        <v>372</v>
+      </c>
+      <c r="C276" t="s">
+        <v>678</v>
+      </c>
+      <c r="D276" t="s">
+        <v>373</v>
+      </c>
+      <c r="E276" t="s">
+        <v>373</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>1219</v>
+      </c>
+      <c r="B277" t="s">
+        <v>374</v>
+      </c>
+      <c r="C277" t="s">
+        <v>679</v>
+      </c>
+      <c r="D277" t="s">
+        <v>375</v>
+      </c>
+      <c r="E277" t="s">
+        <v>375</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>1220</v>
+      </c>
+      <c r="B278" t="s">
+        <v>376</v>
+      </c>
+      <c r="C278" t="s">
+        <v>680</v>
+      </c>
+      <c r="D278" t="s">
+        <v>375</v>
+      </c>
+      <c r="E278" t="s">
+        <v>375</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>1221</v>
+      </c>
+      <c r="B279" t="s">
+        <v>377</v>
+      </c>
+      <c r="C279" t="s">
+        <v>355</v>
+      </c>
+      <c r="D279" t="s">
+        <v>16</v>
+      </c>
+      <c r="E279" t="s">
+        <v>16</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>378</v>
+      </c>
+      <c r="B281" t="s">
+        <v>379</v>
+      </c>
+      <c r="C281" t="s">
+        <v>380</v>
+      </c>
+      <c r="D281" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281" t="s">
+        <v>16</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>1237</v>
+      </c>
+      <c r="B282" t="s">
+        <v>380</v>
+      </c>
+      <c r="D282" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" t="s">
+        <v>16</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>1251</v>
+      </c>
+      <c r="B284" t="s">
+        <v>381</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" t="s">
+        <v>69</v>
+      </c>
+      <c r="F284">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>382</v>
+      </c>
+      <c r="B285" t="s">
+        <v>383</v>
+      </c>
+      <c r="C285" t="s">
+        <v>381</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" t="s">
+        <v>69</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>384</v>
+      </c>
+      <c r="B287" t="s">
+        <v>385</v>
+      </c>
+      <c r="C287" t="s">
+        <v>386</v>
+      </c>
+      <c r="D287" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287" t="s">
+        <v>16</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>1258</v>
+      </c>
+      <c r="B288" t="s">
+        <v>386</v>
+      </c>
+      <c r="D288" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" t="s">
+        <v>16</v>
+      </c>
+      <c r="F288">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>387</v>
+      </c>
+      <c r="B290" t="s">
+        <v>388</v>
+      </c>
+      <c r="C290" t="s">
+        <v>389</v>
+      </c>
+      <c r="D290" t="s">
+        <v>59</v>
+      </c>
+      <c r="E290" t="s">
+        <v>59</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>1266</v>
+      </c>
+      <c r="B291" t="s">
+        <v>389</v>
+      </c>
+      <c r="D291" t="s">
+        <v>59</v>
+      </c>
+      <c r="E291" t="s">
+        <v>59</v>
+      </c>
+      <c r="F291">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>1279</v>
+      </c>
+      <c r="B293" t="s">
+        <v>390</v>
+      </c>
+      <c r="C293" t="s">
+        <v>681</v>
+      </c>
+      <c r="D293" t="s">
+        <v>59</v>
+      </c>
+      <c r="E293" t="s">
+        <v>59</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>391</v>
+      </c>
+      <c r="B295" t="s">
+        <v>392</v>
+      </c>
+      <c r="C295" t="s">
+        <v>393</v>
+      </c>
+      <c r="D295" t="s">
+        <v>59</v>
+      </c>
+      <c r="E295" t="s">
+        <v>59</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>1281</v>
+      </c>
+      <c r="B296" t="s">
+        <v>393</v>
+      </c>
+      <c r="D296" t="s">
+        <v>59</v>
+      </c>
+      <c r="E296" t="s">
+        <v>59</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>1318</v>
+      </c>
+      <c r="B298" t="s">
+        <v>394</v>
+      </c>
+      <c r="C298" t="s">
+        <v>682</v>
+      </c>
+      <c r="D298" t="s">
+        <v>59</v>
+      </c>
+      <c r="E298" t="s">
+        <v>59</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>395</v>
+      </c>
+      <c r="B300" t="s">
+        <v>396</v>
+      </c>
+      <c r="C300" t="s">
+        <v>397</v>
+      </c>
+      <c r="D300" t="s">
+        <v>16</v>
+      </c>
+      <c r="E300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>1320</v>
+      </c>
+      <c r="B301" t="s">
+        <v>397</v>
+      </c>
+      <c r="D301" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>398</v>
+      </c>
+      <c r="B303" t="s">
+        <v>399</v>
+      </c>
+      <c r="C303" t="s">
+        <v>401</v>
+      </c>
+      <c r="D303" t="s">
+        <v>400</v>
+      </c>
+      <c r="E303" t="s">
+        <v>400</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>1326</v>
+      </c>
+      <c r="B304" t="s">
+        <v>401</v>
+      </c>
+      <c r="D304" t="s">
+        <v>400</v>
+      </c>
+      <c r="E304" t="s">
+        <v>400</v>
+      </c>
+      <c r="F304">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>402</v>
+      </c>
+      <c r="B305" t="s">
+        <v>403</v>
+      </c>
+      <c r="C305" t="s">
+        <v>401</v>
+      </c>
+      <c r="D305" t="s">
+        <v>400</v>
+      </c>
+      <c r="E305" t="s">
+        <v>400</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>404</v>
+      </c>
+      <c r="B307" t="s">
+        <v>405</v>
+      </c>
+      <c r="C307" t="s">
+        <v>406</v>
+      </c>
+      <c r="D307" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" t="s">
+        <v>16</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>1348</v>
+      </c>
+      <c r="B308" t="s">
+        <v>406</v>
+      </c>
+      <c r="D308" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" t="s">
+        <v>16</v>
+      </c>
+      <c r="F308">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>407</v>
+      </c>
+      <c r="B309" t="s">
+        <v>408</v>
+      </c>
+      <c r="C309" t="s">
+        <v>406</v>
+      </c>
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>16</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>409</v>
+      </c>
+      <c r="B311" t="s">
+        <v>410</v>
+      </c>
+      <c r="C311" t="s">
+        <v>411</v>
+      </c>
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>1353</v>
+      </c>
+      <c r="B312" t="s">
+        <v>411</v>
+      </c>
+      <c r="D312" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>1362</v>
+      </c>
+      <c r="B314" t="s">
+        <v>412</v>
+      </c>
+      <c r="D314" t="s">
+        <v>34</v>
+      </c>
+      <c r="E314" t="s">
+        <v>34</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>413</v>
+      </c>
+      <c r="B315" t="s">
+        <v>414</v>
+      </c>
+      <c r="C315" t="s">
+        <v>412</v>
+      </c>
+      <c r="D315" t="s">
+        <v>34</v>
+      </c>
+      <c r="E315" t="s">
+        <v>34</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>1366</v>
+      </c>
+      <c r="B317" t="s">
+        <v>415</v>
+      </c>
+      <c r="D317" t="s">
+        <v>400</v>
+      </c>
+      <c r="E317" t="s">
+        <v>400</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>416</v>
+      </c>
+      <c r="B318" t="s">
+        <v>417</v>
+      </c>
+      <c r="C318" t="s">
+        <v>415</v>
+      </c>
+      <c r="D318" t="s">
+        <v>400</v>
+      </c>
+      <c r="E318" t="s">
+        <v>400</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>1369</v>
+      </c>
+      <c r="B320" t="s">
+        <v>418</v>
+      </c>
+      <c r="D320" t="s">
+        <v>173</v>
+      </c>
+      <c r="E320" t="s">
+        <v>173</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>419</v>
+      </c>
+      <c r="B321" t="s">
+        <v>420</v>
+      </c>
+      <c r="C321" t="s">
+        <v>418</v>
+      </c>
+      <c r="D321" t="s">
+        <v>173</v>
+      </c>
+      <c r="E321" t="s">
+        <v>173</v>
+      </c>
+      <c r="F321">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>1382</v>
+      </c>
+      <c r="B323" t="s">
+        <v>421</v>
+      </c>
+      <c r="D323" t="s">
+        <v>24</v>
+      </c>
+      <c r="E323" t="s">
+        <v>24</v>
+      </c>
+      <c r="F323">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>422</v>
+      </c>
+      <c r="B324" t="s">
+        <v>423</v>
+      </c>
+      <c r="C324" t="s">
+        <v>421</v>
+      </c>
+      <c r="D324" t="s">
+        <v>24</v>
+      </c>
+      <c r="E324" t="s">
+        <v>24</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>424</v>
+      </c>
+      <c r="B326" t="s">
+        <v>425</v>
+      </c>
+      <c r="C326" t="s">
+        <v>426</v>
+      </c>
+      <c r="D326" t="s">
+        <v>173</v>
+      </c>
+      <c r="E326" t="s">
+        <v>173</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>1403</v>
+      </c>
+      <c r="B327" t="s">
+        <v>426</v>
+      </c>
+      <c r="D327" t="s">
+        <v>173</v>
+      </c>
+      <c r="E327" t="s">
+        <v>173</v>
+      </c>
+      <c r="F327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>1399</v>
+      </c>
+      <c r="B329" t="s">
+        <v>427</v>
+      </c>
+      <c r="C329" t="s">
+        <v>428</v>
+      </c>
+      <c r="D329" t="s">
+        <v>24</v>
+      </c>
+      <c r="E329" t="s">
+        <v>24</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>1404</v>
+      </c>
+      <c r="B330" t="s">
+        <v>428</v>
+      </c>
+      <c r="D330" t="s">
+        <v>24</v>
+      </c>
+      <c r="E330" t="s">
+        <v>24</v>
+      </c>
+      <c r="F330">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>1407</v>
+      </c>
+      <c r="B331" t="s">
+        <v>429</v>
+      </c>
+      <c r="C331" t="s">
+        <v>428</v>
+      </c>
+      <c r="D331" t="s">
+        <v>24</v>
+      </c>
+      <c r="E331" t="s">
+        <v>24</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>1412</v>
+      </c>
+      <c r="B333" t="s">
+        <v>430</v>
+      </c>
+      <c r="C333" t="s">
+        <v>683</v>
+      </c>
+      <c r="D333" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" t="s">
+        <v>16</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>1413</v>
+      </c>
+      <c r="B334" t="s">
+        <v>431</v>
+      </c>
+      <c r="C334" t="s">
+        <v>684</v>
+      </c>
+      <c r="D334" t="s">
+        <v>16</v>
+      </c>
+      <c r="E334" t="s">
+        <v>16</v>
+      </c>
+      <c r="F334">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>1414</v>
+      </c>
+      <c r="B335" t="s">
+        <v>431</v>
+      </c>
+      <c r="C335" t="s">
+        <v>684</v>
+      </c>
+      <c r="D335" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" t="s">
+        <v>24</v>
+      </c>
+      <c r="F335">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>1415</v>
+      </c>
+      <c r="B336" t="s">
+        <v>432</v>
+      </c>
+      <c r="C336" t="s">
+        <v>684</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" t="s">
+        <v>16</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>1416</v>
+      </c>
+      <c r="B337" t="s">
+        <v>433</v>
+      </c>
+      <c r="C337" t="s">
+        <v>684</v>
+      </c>
+      <c r="D337" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" t="s">
+        <v>16</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>1417</v>
+      </c>
+      <c r="B338" t="s">
+        <v>434</v>
+      </c>
+      <c r="C338" t="s">
+        <v>685</v>
+      </c>
+      <c r="D338" t="s">
+        <v>34</v>
+      </c>
+      <c r="E338" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>1418</v>
+      </c>
+      <c r="B339" t="s">
+        <v>435</v>
+      </c>
+      <c r="C339" t="s">
+        <v>686</v>
+      </c>
+      <c r="D339" t="s">
+        <v>16</v>
+      </c>
+      <c r="E339" t="s">
+        <v>16</v>
+      </c>
+      <c r="F339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>1419</v>
+      </c>
+      <c r="B340" t="s">
+        <v>436</v>
+      </c>
+      <c r="C340" t="s">
+        <v>687</v>
+      </c>
+      <c r="D340" t="s">
+        <v>139</v>
+      </c>
+      <c r="E340" t="s">
+        <v>139</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>1420</v>
+      </c>
+      <c r="B341" t="s">
+        <v>437</v>
+      </c>
+      <c r="C341" t="s">
+        <v>688</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" t="s">
+        <v>16</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>1421</v>
+      </c>
+      <c r="B342" t="s">
+        <v>438</v>
+      </c>
+      <c r="C342" t="s">
+        <v>689</v>
+      </c>
+      <c r="D342" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" t="s">
+        <v>16</v>
+      </c>
+      <c r="F342">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>1422</v>
+      </c>
+      <c r="B343" t="s">
+        <v>439</v>
+      </c>
+      <c r="C343" t="s">
+        <v>689</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>16</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>1423</v>
+      </c>
+      <c r="B344" t="s">
+        <v>440</v>
+      </c>
+      <c r="C344" t="s">
+        <v>690</v>
+      </c>
+      <c r="D344" t="s">
+        <v>139</v>
+      </c>
+      <c r="E344" t="s">
+        <v>139</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>1424</v>
+      </c>
+      <c r="B345" t="s">
+        <v>441</v>
+      </c>
+      <c r="C345" t="s">
+        <v>691</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" t="s">
+        <v>16</v>
+      </c>
+      <c r="F345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>1425</v>
+      </c>
+      <c r="B346" t="s">
+        <v>442</v>
+      </c>
+      <c r="C346" t="s">
+        <v>692</v>
+      </c>
+      <c r="D346" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" t="s">
+        <v>16</v>
+      </c>
+      <c r="F346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>1426</v>
+      </c>
+      <c r="B347" t="s">
+        <v>443</v>
+      </c>
+      <c r="C347" t="s">
+        <v>693</v>
+      </c>
+      <c r="D347" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" t="s">
+        <v>16</v>
+      </c>
+      <c r="F347">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>1427</v>
+      </c>
+      <c r="B348" t="s">
+        <v>444</v>
+      </c>
+      <c r="C348" t="s">
+        <v>694</v>
+      </c>
+      <c r="D348" t="s">
+        <v>400</v>
+      </c>
+      <c r="E348" t="s">
+        <v>400</v>
+      </c>
+      <c r="F348">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>1428</v>
+      </c>
+      <c r="B349" t="s">
+        <v>445</v>
+      </c>
+      <c r="C349" t="s">
+        <v>695</v>
+      </c>
+      <c r="D349" t="s">
+        <v>446</v>
+      </c>
+      <c r="E349" t="s">
+        <v>446</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>1429</v>
+      </c>
+      <c r="B350" t="s">
+        <v>447</v>
+      </c>
+      <c r="C350" t="s">
+        <v>696</v>
+      </c>
+      <c r="D350" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" t="s">
+        <v>16</v>
+      </c>
+      <c r="F350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>1430</v>
+      </c>
+      <c r="B351" t="s">
+        <v>448</v>
+      </c>
+      <c r="C351" t="s">
+        <v>697</v>
+      </c>
+      <c r="D351" t="s">
+        <v>16</v>
+      </c>
+      <c r="E351" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>1431</v>
+      </c>
+      <c r="B352" t="s">
+        <v>449</v>
+      </c>
+      <c r="C352" t="s">
+        <v>697</v>
+      </c>
+      <c r="D352" t="s">
+        <v>16</v>
+      </c>
+      <c r="E352" t="s">
+        <v>16</v>
+      </c>
+      <c r="F352">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>1432</v>
+      </c>
+      <c r="B353" t="s">
+        <v>450</v>
+      </c>
+      <c r="C353" t="s">
+        <v>698</v>
+      </c>
+      <c r="D353" t="s">
+        <v>16</v>
+      </c>
+      <c r="E353" t="s">
+        <v>16</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>1433</v>
+      </c>
+      <c r="B354" t="s">
+        <v>451</v>
+      </c>
+      <c r="C354" t="s">
+        <v>699</v>
+      </c>
+      <c r="D354" t="s">
+        <v>400</v>
+      </c>
+      <c r="E354" t="s">
+        <v>400</v>
+      </c>
+      <c r="F354">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>1434</v>
+      </c>
+      <c r="B355" t="s">
+        <v>452</v>
+      </c>
+      <c r="C355" t="s">
+        <v>684</v>
+      </c>
+      <c r="D355" t="s">
+        <v>16</v>
+      </c>
+      <c r="E355" t="s">
+        <v>16</v>
+      </c>
+      <c r="F355">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>1435</v>
+      </c>
+      <c r="B356" t="s">
+        <v>453</v>
+      </c>
+      <c r="C356" t="s">
+        <v>700</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+      <c r="E356" t="s">
+        <v>34</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>1436</v>
+      </c>
+      <c r="B357" t="s">
+        <v>454</v>
+      </c>
+      <c r="C357" t="s">
+        <v>689</v>
+      </c>
+      <c r="D357" t="s">
+        <v>16</v>
+      </c>
+      <c r="E357" t="s">
+        <v>16</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>1437</v>
+      </c>
+      <c r="B358" t="s">
+        <v>455</v>
+      </c>
+      <c r="C358" t="s">
+        <v>701</v>
+      </c>
+      <c r="D358" t="s">
+        <v>16</v>
+      </c>
+      <c r="E358" t="s">
+        <v>16</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>1438</v>
+      </c>
+      <c r="B359" t="s">
+        <v>456</v>
+      </c>
+      <c r="C359" t="s">
+        <v>691</v>
+      </c>
+      <c r="D359" t="s">
+        <v>16</v>
+      </c>
+      <c r="E359" t="s">
+        <v>16</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>1439</v>
+      </c>
+      <c r="B360" t="s">
+        <v>457</v>
+      </c>
+      <c r="C360" t="s">
+        <v>693</v>
+      </c>
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" t="s">
+        <v>16</v>
+      </c>
+      <c r="F360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>1440</v>
+      </c>
+      <c r="B361" t="s">
+        <v>458</v>
+      </c>
+      <c r="C361" t="s">
+        <v>694</v>
+      </c>
+      <c r="D361" t="s">
+        <v>400</v>
+      </c>
+      <c r="E361" t="s">
+        <v>400</v>
+      </c>
+      <c r="F361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>1441</v>
+      </c>
+      <c r="B362" t="s">
+        <v>459</v>
+      </c>
+      <c r="C362" t="s">
+        <v>697</v>
+      </c>
+      <c r="D362" t="s">
+        <v>16</v>
+      </c>
+      <c r="E362" t="s">
+        <v>16</v>
+      </c>
+      <c r="F362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>1442</v>
+      </c>
+      <c r="B363" t="s">
+        <v>460</v>
+      </c>
+      <c r="C363" t="s">
+        <v>684</v>
+      </c>
+      <c r="D363" t="s">
+        <v>16</v>
+      </c>
+      <c r="E363" t="s">
+        <v>16</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>1443</v>
+      </c>
+      <c r="B364" t="s">
+        <v>461</v>
+      </c>
+      <c r="C364" t="s">
+        <v>696</v>
+      </c>
+      <c r="D364" t="s">
+        <v>16</v>
+      </c>
+      <c r="E364" t="s">
+        <v>16</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>1460</v>
+      </c>
+      <c r="B366" t="s">
+        <v>462</v>
+      </c>
+      <c r="D366" t="s">
+        <v>59</v>
+      </c>
+      <c r="E366" t="s">
+        <v>59</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>463</v>
+      </c>
+      <c r="B367" t="s">
+        <v>464</v>
+      </c>
+      <c r="C367" t="s">
+        <v>462</v>
+      </c>
+      <c r="D367" t="s">
+        <v>59</v>
+      </c>
+      <c r="E367" t="s">
+        <v>59</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>465</v>
+      </c>
+      <c r="B370" t="s">
+        <v>466</v>
+      </c>
+      <c r="C370" t="s">
+        <v>702</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" t="s">
+        <v>11</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>467</v>
+      </c>
+      <c r="B372" t="s">
+        <v>468</v>
+      </c>
+      <c r="C372" t="s">
+        <v>469</v>
+      </c>
+      <c r="D372" t="s">
+        <v>24</v>
+      </c>
+      <c r="E372" t="s">
+        <v>24</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>1476</v>
+      </c>
+      <c r="B373" t="s">
+        <v>469</v>
+      </c>
+      <c r="D373" t="s">
+        <v>24</v>
+      </c>
+      <c r="E373" t="s">
+        <v>24</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>1487</v>
+      </c>
+      <c r="B375" t="s">
+        <v>470</v>
+      </c>
+      <c r="D375" t="s">
+        <v>24</v>
+      </c>
+      <c r="E375" t="s">
+        <v>24</v>
+      </c>
+      <c r="F375">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>471</v>
+      </c>
+      <c r="B376" t="s">
+        <v>472</v>
+      </c>
+      <c r="C376" t="s">
+        <v>470</v>
+      </c>
+      <c r="D376" t="s">
+        <v>24</v>
+      </c>
+      <c r="E376" t="s">
+        <v>24</v>
+      </c>
+      <c r="F376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>1491</v>
+      </c>
+      <c r="B379" t="s">
+        <v>473</v>
+      </c>
+      <c r="C379" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" t="s">
+        <v>24</v>
+      </c>
+      <c r="E379" t="s">
+        <v>24</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>474</v>
+      </c>
+      <c r="B381" t="s">
+        <v>475</v>
+      </c>
+      <c r="C381" t="s">
+        <v>478</v>
+      </c>
+      <c r="D381" t="s">
+        <v>16</v>
+      </c>
+      <c r="E381" t="s">
+        <v>16</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>476</v>
+      </c>
+      <c r="B382" t="s">
+        <v>477</v>
+      </c>
+      <c r="C382" t="s">
+        <v>478</v>
+      </c>
+      <c r="D382" t="s">
+        <v>16</v>
+      </c>
+      <c r="E382" t="s">
+        <v>16</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>1497</v>
+      </c>
+      <c r="B383" t="s">
+        <v>478</v>
+      </c>
+      <c r="D383" t="s">
+        <v>16</v>
+      </c>
+      <c r="E383" t="s">
+        <v>16</v>
+      </c>
+      <c r="F383">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>479</v>
+      </c>
+      <c r="B385" t="s">
+        <v>480</v>
+      </c>
+      <c r="C385" t="s">
+        <v>481</v>
+      </c>
+      <c r="D385" t="s">
+        <v>16</v>
+      </c>
+      <c r="E385" t="s">
+        <v>16</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>1515</v>
+      </c>
+      <c r="B386" t="s">
+        <v>481</v>
+      </c>
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+      <c r="E386" t="s">
+        <v>16</v>
+      </c>
+      <c r="F386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>1555</v>
+      </c>
+      <c r="B388" t="s">
+        <v>482</v>
+      </c>
+      <c r="D388" t="s">
+        <v>375</v>
+      </c>
+      <c r="E388" t="s">
+        <v>375</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>483</v>
+      </c>
+      <c r="B389" t="s">
+        <v>484</v>
+      </c>
+      <c r="C389" t="s">
+        <v>482</v>
+      </c>
+      <c r="D389" t="s">
+        <v>375</v>
+      </c>
+      <c r="E389" t="s">
+        <v>375</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>1567</v>
+      </c>
+      <c r="B391" t="s">
+        <v>485</v>
+      </c>
+      <c r="D391" t="s">
+        <v>82</v>
+      </c>
+      <c r="E391" t="s">
+        <v>82</v>
+      </c>
+      <c r="F391">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>486</v>
+      </c>
+      <c r="B392" t="s">
+        <v>487</v>
+      </c>
+      <c r="C392" t="s">
+        <v>485</v>
+      </c>
+      <c r="D392" t="s">
+        <v>82</v>
+      </c>
+      <c r="E392" t="s">
+        <v>82</v>
+      </c>
+      <c r="F392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>488</v>
+      </c>
+      <c r="B394" t="s">
+        <v>489</v>
+      </c>
+      <c r="C394" t="s">
+        <v>490</v>
+      </c>
+      <c r="D394" t="s">
+        <v>24</v>
+      </c>
+      <c r="E394" t="s">
+        <v>24</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>1574</v>
+      </c>
+      <c r="B395" t="s">
+        <v>490</v>
+      </c>
+      <c r="D395" t="s">
+        <v>24</v>
+      </c>
+      <c r="E395" t="s">
+        <v>24</v>
+      </c>
+      <c r="F395">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>1595</v>
+      </c>
+      <c r="B397" t="s">
+        <v>491</v>
+      </c>
+      <c r="C397" t="s">
+        <v>493</v>
+      </c>
+      <c r="D397" t="s">
+        <v>16</v>
+      </c>
+      <c r="E397" t="s">
+        <v>16</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>1596</v>
+      </c>
+      <c r="B398" t="s">
+        <v>492</v>
+      </c>
+      <c r="C398" t="s">
+        <v>493</v>
+      </c>
+      <c r="D398" t="s">
+        <v>16</v>
+      </c>
+      <c r="E398" t="s">
+        <v>16</v>
+      </c>
+      <c r="F398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>1597</v>
+      </c>
+      <c r="B399" t="s">
+        <v>493</v>
+      </c>
+      <c r="D399" t="s">
+        <v>16</v>
+      </c>
+      <c r="E399" t="s">
+        <v>16</v>
+      </c>
+      <c r="F399">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>494</v>
+      </c>
+      <c r="B401" t="s">
+        <v>495</v>
+      </c>
+      <c r="C401" t="s">
+        <v>498</v>
+      </c>
+      <c r="D401" t="s">
+        <v>496</v>
+      </c>
+      <c r="E401" t="s">
+        <v>496</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>497</v>
+      </c>
+      <c r="B402" t="s">
+        <v>495</v>
+      </c>
+      <c r="C402" t="s">
+        <v>498</v>
+      </c>
+      <c r="D402" t="s">
+        <v>24</v>
+      </c>
+      <c r="E402" t="s">
+        <v>24</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>1616</v>
+      </c>
+      <c r="B403" t="s">
+        <v>498</v>
+      </c>
+      <c r="D403" t="s">
+        <v>24</v>
+      </c>
+      <c r="E403" t="s">
+        <v>24</v>
+      </c>
+      <c r="F403">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>1617</v>
+      </c>
+      <c r="B404" t="s">
+        <v>498</v>
+      </c>
+      <c r="D404" t="s">
+        <v>496</v>
+      </c>
+      <c r="E404" t="s">
+        <v>496</v>
+      </c>
+      <c r="F404">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>499</v>
+      </c>
+      <c r="B406" t="s">
+        <v>500</v>
+      </c>
+      <c r="C406" t="s">
+        <v>501</v>
+      </c>
+      <c r="D406" t="s">
+        <v>24</v>
+      </c>
+      <c r="E406" t="s">
+        <v>24</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>1630</v>
+      </c>
+      <c r="B407" t="s">
+        <v>501</v>
+      </c>
+      <c r="D407" t="s">
+        <v>24</v>
+      </c>
+      <c r="E407" t="s">
+        <v>24</v>
+      </c>
+      <c r="F407">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>502</v>
+      </c>
+      <c r="B409" t="s">
+        <v>503</v>
+      </c>
+      <c r="C409" t="s">
+        <v>504</v>
+      </c>
+      <c r="D409" t="s">
+        <v>16</v>
+      </c>
+      <c r="E409" t="s">
+        <v>16</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>1632</v>
+      </c>
+      <c r="B410" t="s">
+        <v>504</v>
+      </c>
+      <c r="D410" t="s">
+        <v>16</v>
+      </c>
+      <c r="E410" t="s">
+        <v>16</v>
+      </c>
+      <c r="F410">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C253" r:id="rId1" display="https://www.google.com/search?sca_esv=8b3c2fe050857b40&amp;rlz=1C1GCEB_enUS1072US1072&amp;q=PALM+HARBOR+fl&amp;spell=1&amp;sa=X&amp;ved=2ahUKEwjK0crLs6GGAxUKAHkGHeSsAMkQkeECKAB6BAgIEAE"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C56" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D126" sqref="A1:D126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1049248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1124983</v>
+      </c>
+      <c r="B4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>937588</v>
+      </c>
+      <c r="B5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>922800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1114966</v>
+      </c>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>966176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>919225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>942952</v>
+      </c>
+      <c r="B11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>621299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>611495</v>
+      </c>
+      <c r="B14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>651975</v>
+      </c>
+      <c r="B18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1091363</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>686013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>915915</v>
+      </c>
+      <c r="B21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>666941</v>
+      </c>
+      <c r="B22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>603106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1268871</v>
+      </c>
+      <c r="B24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>542</v>
+      </c>
+      <c r="B25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>919179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>545</v>
+      </c>
+      <c r="B27" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>627152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>594580</v>
+      </c>
+      <c r="B30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>548</v>
+      </c>
+      <c r="B31" t="s">
+        <v>546</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>650692</v>
+      </c>
+      <c r="B33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" t="s">
+        <v>546</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" t="s">
+        <v>546</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>529063</v>
+      </c>
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>554</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B38" t="s">
+        <v>554</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>556</v>
+      </c>
+      <c r="B39" t="s">
+        <v>554</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>574050</v>
+      </c>
+      <c r="B40" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>558</v>
+      </c>
+      <c r="B41" t="s">
+        <v>557</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B43" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" t="s">
+        <v>564</v>
+      </c>
+      <c r="C45" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>1026258</v>
+      </c>
+      <c r="B46" t="s">
+        <v>565</v>
+      </c>
+      <c r="C46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>566</v>
+      </c>
+      <c r="B47" t="s">
+        <v>567</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>568</v>
+      </c>
+      <c r="B48" t="s">
+        <v>567</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>569</v>
+      </c>
+      <c r="B49" t="s">
+        <v>570</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" t="s">
+        <v>572</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>573</v>
+      </c>
+      <c r="B51" t="s">
+        <v>572</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52" t="s">
+        <v>572</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>1135069</v>
+      </c>
+      <c r="B53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>575</v>
+      </c>
+      <c r="B54" t="s">
+        <v>572</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>576316</v>
+      </c>
+      <c r="B55" t="s">
+        <v>572</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>576</v>
+      </c>
+      <c r="B56" t="s">
+        <v>572</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>577</v>
+      </c>
+      <c r="B57" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>578</v>
+      </c>
+      <c r="B58" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>579</v>
+      </c>
+      <c r="B59" t="s">
+        <v>572</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>580</v>
+      </c>
+      <c r="B60" t="s">
+        <v>572</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" t="s">
+        <v>572</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>582</v>
+      </c>
+      <c r="B62" t="s">
+        <v>572</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>626516</v>
+      </c>
+      <c r="B63" t="s">
+        <v>572</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>681249</v>
+      </c>
+      <c r="B64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>583</v>
+      </c>
+      <c r="B65" t="s">
+        <v>572</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>696543</v>
+      </c>
+      <c r="B66" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>631945</v>
+      </c>
+      <c r="B67" t="s">
+        <v>572</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>594001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>572</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>589750</v>
+      </c>
+      <c r="B69" t="s">
+        <v>572</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>512730</v>
+      </c>
+      <c r="B70" t="s">
+        <v>572</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>1022496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>572</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>913329</v>
+      </c>
+      <c r="B72" t="s">
+        <v>572</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>584</v>
+      </c>
+      <c r="B73" t="s">
+        <v>572</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>585</v>
+      </c>
+      <c r="B74" t="s">
+        <v>572</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>1174537</v>
+      </c>
+      <c r="B75" t="s">
+        <v>572</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>995952</v>
+      </c>
+      <c r="B76" t="s">
+        <v>572</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>586</v>
+      </c>
+      <c r="B77" t="s">
+        <v>572</v>
+      </c>
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>589924</v>
+      </c>
+      <c r="B78" t="s">
+        <v>572</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" t="s">
+        <v>572</v>
+      </c>
+      <c r="C79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>588</v>
+      </c>
+      <c r="B80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>589</v>
+      </c>
+      <c r="B81" t="s">
+        <v>572</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>1091357</v>
+      </c>
+      <c r="B82" t="s">
+        <v>572</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1203246</v>
+      </c>
+      <c r="B83" t="s">
+        <v>572</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>590</v>
+      </c>
+      <c r="B84" t="s">
+        <v>572</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>591</v>
+      </c>
+      <c r="B85" t="s">
+        <v>572</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>592</v>
+      </c>
+      <c r="B86" t="s">
+        <v>572</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>593</v>
+      </c>
+      <c r="B87" t="s">
+        <v>572</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>1117793</v>
+      </c>
+      <c r="B88" t="s">
+        <v>572</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>594</v>
+      </c>
+      <c r="B89" t="s">
+        <v>572</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>595</v>
+      </c>
+      <c r="B90" t="s">
+        <v>572</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>596</v>
+      </c>
+      <c r="B91" t="s">
+        <v>572</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>1229734</v>
+      </c>
+      <c r="B92" t="s">
+        <v>572</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>597</v>
+      </c>
+      <c r="B93" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>598</v>
+      </c>
+      <c r="B94" t="s">
+        <v>572</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>599</v>
+      </c>
+      <c r="B95" t="s">
+        <v>572</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>600</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>601</v>
+      </c>
+      <c r="B97" t="s">
+        <v>572</v>
+      </c>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>602</v>
+      </c>
+      <c r="B98" t="s">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>1169018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>572</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>1252181</v>
+      </c>
+      <c r="B100" t="s">
+        <v>572</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>550491</v>
+      </c>
+      <c r="B101" t="s">
+        <v>572</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>603</v>
+      </c>
+      <c r="B102" t="s">
+        <v>572</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>604</v>
+      </c>
+      <c r="B103" t="s">
+        <v>572</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>605</v>
+      </c>
+      <c r="B104" t="s">
+        <v>572</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>606</v>
+      </c>
+      <c r="B105" t="s">
+        <v>572</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>1103978</v>
+      </c>
+      <c r="B106" t="s">
+        <v>572</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>607</v>
+      </c>
+      <c r="B107" t="s">
+        <v>572</v>
+      </c>
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>608</v>
+      </c>
+      <c r="B108" t="s">
+        <v>572</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>609</v>
+      </c>
+      <c r="B109" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>610</v>
+      </c>
+      <c r="B110" t="s">
+        <v>572</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>611</v>
+      </c>
+      <c r="B111" t="s">
+        <v>572</v>
+      </c>
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>612</v>
+      </c>
+      <c r="B112" t="s">
+        <v>572</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>613</v>
+      </c>
+      <c r="B113" t="s">
+        <v>572</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>614</v>
+      </c>
+      <c r="B114" t="s">
+        <v>572</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>615</v>
+      </c>
+      <c r="B115" t="s">
+        <v>572</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>616</v>
+      </c>
+      <c r="B116" t="s">
+        <v>617</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>618</v>
+      </c>
+      <c r="B117" t="s">
+        <v>619</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>972585</v>
+      </c>
+      <c r="B118" t="s">
+        <v>619</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>620</v>
+      </c>
+      <c r="B119" t="s">
+        <v>621</v>
+      </c>
+      <c r="C119" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>622</v>
+      </c>
+      <c r="B120" t="s">
+        <v>623</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>624</v>
+      </c>
+      <c r="B121" t="s">
+        <v>623</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>625</v>
+      </c>
+      <c r="B122" t="s">
+        <v>623</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>626</v>
+      </c>
+      <c r="B123" t="s">
+        <v>627</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>1181159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>628</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>629</v>
+      </c>
+      <c r="B125" t="s">
+        <v>630</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>992615</v>
+      </c>
+      <c r="B126" t="s">
+        <v>631</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>